--- a/report/summary_GBPJPY_H1_2020-2023_0.xlsx
+++ b/report/summary_GBPJPY_H1_2020-2023_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="16">
   <si>
     <t>symbol</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -894,7 +894,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -909,39 +909,39 @@
         <v>2023</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G11">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="H11">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="I11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>-45.65299999999988</v>
+        <v>-44.16799999999994</v>
       </c>
       <c r="L11">
-        <v>453</v>
+        <v>713</v>
       </c>
       <c r="M11">
         <v>-3.826999999999998</v>
       </c>
       <c r="N11">
-        <v>-49.47999999999988</v>
+        <v>-47.99499999999993</v>
       </c>
       <c r="O11">
-        <v>0.304635761589404</v>
+        <v>0.2622720897615708</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -959,36 +959,36 @@
         <v>100</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="H12">
         <v>0.25</v>
       </c>
       <c r="I12">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J12">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K12">
-        <v>-51.86200000000012</v>
+        <v>-45.65299999999988</v>
       </c>
       <c r="L12">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="M12">
         <v>-3.826999999999998</v>
       </c>
       <c r="N12">
-        <v>-55.68900000000012</v>
+        <v>-49.47999999999988</v>
       </c>
       <c r="O12">
-        <v>0.3003246753246753</v>
+        <v>0.304635761589404</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1003,39 +1003,39 @@
         <v>2023</v>
       </c>
       <c r="F13">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G13">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="I13">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="J13">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
-        <v>-60.88000000000024</v>
+        <v>-51.86200000000012</v>
       </c>
       <c r="L13">
-        <v>505</v>
+        <v>616</v>
       </c>
       <c r="M13">
         <v>-3.826999999999998</v>
       </c>
       <c r="N13">
-        <v>-64.70700000000024</v>
+        <v>-55.68900000000012</v>
       </c>
       <c r="O13">
-        <v>0.2039603960396039</v>
+        <v>0.3003246753246753</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -1050,39 +1050,39 @@
         <v>2023</v>
       </c>
       <c r="F14">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G14">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H14">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="I14">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="J14">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K14">
-        <v>-63.7139999999997</v>
+        <v>-60.88000000000024</v>
       </c>
       <c r="L14">
-        <v>690</v>
+        <v>505</v>
       </c>
       <c r="M14">
         <v>-3.826999999999998</v>
       </c>
       <c r="N14">
-        <v>-67.5409999999997</v>
+        <v>-64.70700000000024</v>
       </c>
       <c r="O14">
-        <v>0.3202898550724638</v>
+        <v>0.2039603960396039</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1097,39 +1097,39 @@
         <v>2023</v>
       </c>
       <c r="F15">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G15">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H15">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="I15">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J15">
         <v>0.05</v>
       </c>
       <c r="K15">
-        <v>-70.4189999999998</v>
+        <v>-61.13499999999992</v>
       </c>
       <c r="L15">
-        <v>896</v>
+        <v>860</v>
       </c>
       <c r="M15">
-        <v>-3.281000000000006</v>
+        <v>-3.826999999999998</v>
       </c>
       <c r="N15">
-        <v>-73.6999999999998</v>
+        <v>-64.96199999999992</v>
       </c>
       <c r="O15">
-        <v>0.4185267857142857</v>
+        <v>0.4244186046511628</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1147,83 +1147,83 @@
         <v>60</v>
       </c>
       <c r="G16">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H16">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="I16">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J16">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="K16">
-        <v>-73.67199999999981</v>
+        <v>-65.99299999999987</v>
       </c>
       <c r="L16">
-        <v>1084</v>
+        <v>465</v>
       </c>
       <c r="M16">
-        <v>-3.213999999999999</v>
+        <v>-1.067000000000007</v>
       </c>
       <c r="N16">
-        <v>-76.88599999999981</v>
+        <v>-67.05999999999987</v>
       </c>
       <c r="O16">
-        <v>0.3966789667896679</v>
+        <v>0.1225806451612903</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>2020</v>
+      </c>
+      <c r="E17">
+        <v>2023</v>
+      </c>
+      <c r="F17">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <v>2020</v>
-      </c>
-      <c r="E17">
-        <v>2023</v>
-      </c>
-      <c r="F17">
-        <v>90</v>
-      </c>
       <c r="G17">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
         <v>0.15</v>
       </c>
-      <c r="I17">
-        <v>0.5</v>
-      </c>
       <c r="J17">
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
       <c r="K17">
-        <v>-75.25200000000005</v>
+        <v>-63.7139999999997</v>
       </c>
       <c r="L17">
-        <v>551</v>
+        <v>690</v>
       </c>
       <c r="M17">
         <v>-3.826999999999998</v>
       </c>
       <c r="N17">
-        <v>-79.07900000000005</v>
+        <v>-67.5409999999997</v>
       </c>
       <c r="O17">
-        <v>0.1560798548094374</v>
+        <v>0.3202898550724638</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -1238,39 +1238,39 @@
         <v>2023</v>
       </c>
       <c r="F18">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G18">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H18">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="I18">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="J18">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K18">
-        <v>-75.79099999999998</v>
+        <v>-70.4189999999998</v>
       </c>
       <c r="L18">
-        <v>770</v>
+        <v>896</v>
       </c>
       <c r="M18">
-        <v>-3.826999999999998</v>
+        <v>-3.281000000000006</v>
       </c>
       <c r="N18">
-        <v>-79.61799999999998</v>
+        <v>-73.6999999999998</v>
       </c>
       <c r="O18">
-        <v>0.2987012987012987</v>
+        <v>0.4185267857142857</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1285,39 +1285,39 @@
         <v>2023</v>
       </c>
       <c r="F19">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H19">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="I19">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="J19">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="K19">
-        <v>-77.40899999999969</v>
+        <v>-73.67199999999981</v>
       </c>
       <c r="L19">
-        <v>1146</v>
+        <v>1084</v>
       </c>
       <c r="M19">
         <v>-3.213999999999999</v>
       </c>
       <c r="N19">
-        <v>-80.62299999999969</v>
+        <v>-76.88599999999981</v>
       </c>
       <c r="O19">
-        <v>0.3699825479930192</v>
+        <v>0.3966789667896679</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -1332,39 +1332,39 @@
         <v>2023</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H20">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="I20">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J20">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="K20">
-        <v>-78.37800000000014</v>
+        <v>-75.25200000000005</v>
       </c>
       <c r="L20">
-        <v>1173</v>
+        <v>551</v>
       </c>
       <c r="M20">
         <v>-3.826999999999998</v>
       </c>
       <c r="N20">
-        <v>-82.20500000000014</v>
+        <v>-79.07900000000005</v>
       </c>
       <c r="O20">
-        <v>0.3486786018755328</v>
+        <v>0.1560798548094374</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
@@ -1379,39 +1379,39 @@
         <v>2023</v>
       </c>
       <c r="F21">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G21">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H21">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="I21">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="J21">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="K21">
-        <v>-84.24400000000047</v>
+        <v>-75.79099999999998</v>
       </c>
       <c r="L21">
-        <v>1389</v>
+        <v>770</v>
       </c>
       <c r="M21">
-        <v>-3.125</v>
+        <v>-3.826999999999998</v>
       </c>
       <c r="N21">
-        <v>-87.36900000000047</v>
+        <v>-79.61799999999998</v>
       </c>
       <c r="O21">
-        <v>0.3765298776097912</v>
+        <v>0.2987012987012987</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -1426,39 +1426,39 @@
         <v>2023</v>
       </c>
       <c r="F22">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G22">
-        <v>2.600000000000001</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="I22">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="J22">
         <v>0.25</v>
       </c>
       <c r="K22">
-        <v>-93.08700000000009</v>
+        <v>-77.40899999999969</v>
       </c>
       <c r="L22">
-        <v>772</v>
+        <v>1146</v>
       </c>
       <c r="M22">
-        <v>-3.125</v>
+        <v>-3.213999999999999</v>
       </c>
       <c r="N22">
-        <v>-96.21200000000009</v>
+        <v>-80.62299999999969</v>
       </c>
       <c r="O22">
-        <v>0.1606217616580311</v>
+        <v>0.3699825479930192</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
@@ -1473,39 +1473,39 @@
         <v>2023</v>
       </c>
       <c r="F23">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G23">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H23">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K23">
-        <v>-99.47099999999985</v>
+        <v>-80.50100000000039</v>
       </c>
       <c r="L23">
-        <v>845</v>
+        <v>567</v>
       </c>
       <c r="M23">
-        <v>-3.826999999999998</v>
+        <v>-1.400000000000006</v>
       </c>
       <c r="N23">
-        <v>-103.2979999999998</v>
+        <v>-81.90100000000039</v>
       </c>
       <c r="O23">
-        <v>0.1668639053254438</v>
+        <v>0.07231040564373897</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
@@ -1520,39 +1520,39 @@
         <v>2023</v>
       </c>
       <c r="F24">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G24">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="I24">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="J24">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K24">
-        <v>-106.068</v>
+        <v>-78.37800000000014</v>
       </c>
       <c r="L24">
-        <v>908</v>
+        <v>1173</v>
       </c>
       <c r="M24">
         <v>-3.826999999999998</v>
       </c>
       <c r="N24">
-        <v>-109.895</v>
+        <v>-82.20500000000014</v>
       </c>
       <c r="O24">
-        <v>0.1640969162995595</v>
+        <v>0.3486786018755328</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
@@ -1567,39 +1567,39 @@
         <v>2023</v>
       </c>
       <c r="F25">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G25">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H25">
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="I25">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J25">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="K25">
-        <v>-107.6349999999999</v>
+        <v>-84.24400000000047</v>
       </c>
       <c r="L25">
-        <v>762</v>
+        <v>1389</v>
       </c>
       <c r="M25">
         <v>-3.125</v>
       </c>
       <c r="N25">
-        <v>-110.7599999999999</v>
+        <v>-87.36900000000047</v>
       </c>
       <c r="O25">
-        <v>0.1036745406824147</v>
+        <v>0.3765298776097912</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1617,36 +1617,36 @@
         <v>40</v>
       </c>
       <c r="G26">
-        <v>2.2</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="H26">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I26">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J26">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K26">
-        <v>-110.6619999999999</v>
+        <v>-93.08700000000009</v>
       </c>
       <c r="L26">
-        <v>1032</v>
+        <v>772</v>
       </c>
       <c r="M26">
-        <v>-3.826999999999998</v>
+        <v>-3.125</v>
       </c>
       <c r="N26">
-        <v>-114.4889999999999</v>
+        <v>-96.21200000000009</v>
       </c>
       <c r="O26">
-        <v>0.2587209302325582</v>
+        <v>0.1606217616580311</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -1661,39 +1661,39 @@
         <v>2023</v>
       </c>
       <c r="F27">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="G27">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H27">
         <v>0.2</v>
       </c>
       <c r="I27">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>-121.6349999999998</v>
+        <v>-99.47099999999985</v>
       </c>
       <c r="L27">
-        <v>1213</v>
+        <v>845</v>
       </c>
       <c r="M27">
-        <v>-3.213999999999999</v>
+        <v>-3.826999999999998</v>
       </c>
       <c r="N27">
-        <v>-124.8489999999998</v>
+        <v>-103.2979999999998</v>
       </c>
       <c r="O27">
-        <v>0.2687551525144271</v>
+        <v>0.1668639053254438</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -1708,39 +1708,39 @@
         <v>2023</v>
       </c>
       <c r="F28">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G28">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H28">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="I28">
+        <v>0.45</v>
+      </c>
+      <c r="J28">
         <v>0.4</v>
       </c>
-      <c r="J28">
-        <v>0.05</v>
-      </c>
       <c r="K28">
-        <v>-129.4630000000007</v>
+        <v>-106.068</v>
       </c>
       <c r="L28">
-        <v>1619</v>
+        <v>908</v>
       </c>
       <c r="M28">
-        <v>-3.257999999999981</v>
+        <v>-3.826999999999998</v>
       </c>
       <c r="N28">
-        <v>-132.7210000000007</v>
+        <v>-109.895</v>
       </c>
       <c r="O28">
-        <v>0.4169240271772699</v>
+        <v>0.1640969162995595</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -1755,39 +1755,39 @@
         <v>2023</v>
       </c>
       <c r="F29">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G29">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H29">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K29">
-        <v>-129.6700000000008</v>
+        <v>-107.6349999999999</v>
       </c>
       <c r="L29">
-        <v>1623</v>
+        <v>762</v>
       </c>
       <c r="M29">
-        <v>-4.592000000000013</v>
+        <v>-3.125</v>
       </c>
       <c r="N29">
-        <v>-134.2620000000008</v>
+        <v>-110.7599999999999</v>
       </c>
       <c r="O29">
-        <v>0.3130006161429452</v>
+        <v>0.1036745406824147</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -1802,39 +1802,39 @@
         <v>2023</v>
       </c>
       <c r="F30">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G30">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H30">
+        <v>0.05</v>
+      </c>
+      <c r="I30">
         <v>0.25</v>
       </c>
-      <c r="I30">
-        <v>0.35</v>
-      </c>
       <c r="J30">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K30">
-        <v>-134.0040000000002</v>
+        <v>-109.6830000000004</v>
       </c>
       <c r="L30">
-        <v>1519</v>
+        <v>762</v>
       </c>
       <c r="M30">
-        <v>-3.125</v>
+        <v>-2.40300000000002</v>
       </c>
       <c r="N30">
-        <v>-137.1290000000002</v>
+        <v>-112.0860000000005</v>
       </c>
       <c r="O30">
-        <v>0.3337722185648453</v>
+        <v>0.09711286089238845</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -1849,39 +1849,39 @@
         <v>2023</v>
       </c>
       <c r="F31">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G31">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H31">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K31">
-        <v>-142.3060000000004</v>
+        <v>-110.6619999999999</v>
       </c>
       <c r="L31">
-        <v>926</v>
+        <v>1032</v>
       </c>
       <c r="M31">
-        <v>-3.125</v>
+        <v>-3.826999999999998</v>
       </c>
       <c r="N31">
-        <v>-145.4310000000004</v>
+        <v>-114.4889999999999</v>
       </c>
       <c r="O31">
-        <v>0.04967602591792657</v>
+        <v>0.2587209302325582</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -1896,39 +1896,39 @@
         <v>2023</v>
       </c>
       <c r="F32">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G32">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="I32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>-149.0050000000005</v>
+        <v>-116.5710000000001</v>
       </c>
       <c r="L32">
-        <v>1789</v>
+        <v>1145</v>
       </c>
       <c r="M32">
-        <v>-3.257999999999981</v>
+        <v>-3.213999999999999</v>
       </c>
       <c r="N32">
-        <v>-152.2630000000005</v>
+        <v>-119.7850000000001</v>
       </c>
       <c r="O32">
-        <v>0.3376187814421465</v>
+        <v>0.2270742358078603</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -1943,39 +1943,39 @@
         <v>2023</v>
       </c>
       <c r="F33">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G33">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H33">
         <v>0.2</v>
       </c>
       <c r="I33">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J33">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K33">
-        <v>-161.2480000000002</v>
+        <v>-121.6349999999998</v>
       </c>
       <c r="L33">
-        <v>1332</v>
+        <v>1213</v>
       </c>
       <c r="M33">
-        <v>-3.125</v>
+        <v>-3.213999999999999</v>
       </c>
       <c r="N33">
-        <v>-164.3730000000002</v>
+        <v>-124.8489999999998</v>
       </c>
       <c r="O33">
-        <v>0.2282282282282282</v>
+        <v>0.2687551525144271</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -1990,39 +1990,39 @@
         <v>2023</v>
       </c>
       <c r="F34">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G34">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H34">
+        <v>0.35</v>
+      </c>
+      <c r="I34">
         <v>0.4</v>
       </c>
-      <c r="I34">
-        <v>0.3</v>
-      </c>
       <c r="J34">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="K34">
-        <v>-169.6120000000002</v>
+        <v>-129.4630000000007</v>
       </c>
       <c r="L34">
-        <v>2361</v>
+        <v>1619</v>
       </c>
       <c r="M34">
-        <v>-5.11699999999999</v>
+        <v>-3.257999999999981</v>
       </c>
       <c r="N34">
-        <v>-174.7290000000002</v>
+        <v>-132.7210000000007</v>
       </c>
       <c r="O34">
-        <v>0.36001694197374</v>
+        <v>0.4169240271772699</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -2043,33 +2043,33 @@
         <v>1.5</v>
       </c>
       <c r="H35">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="I35">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>-174.9260000000003</v>
+        <v>-129.6700000000008</v>
       </c>
       <c r="L35">
         <v>1623</v>
       </c>
       <c r="M35">
-        <v>-3.257999999999981</v>
+        <v>-4.592000000000013</v>
       </c>
       <c r="N35">
-        <v>-178.1840000000003</v>
+        <v>-134.2620000000008</v>
       </c>
       <c r="O35">
-        <v>0.2969808995686999</v>
+        <v>0.3130006161429452</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -2084,39 +2084,39 @@
         <v>2023</v>
       </c>
       <c r="F36">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G36">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H36">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="I36">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="J36">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K36">
-        <v>-183.4619999999998</v>
+        <v>-134.0040000000002</v>
       </c>
       <c r="L36">
-        <v>1213</v>
+        <v>1519</v>
       </c>
       <c r="M36">
-        <v>-3.213999999999999</v>
+        <v>-3.125</v>
       </c>
       <c r="N36">
-        <v>-186.6759999999998</v>
+        <v>-137.1290000000002</v>
       </c>
       <c r="O36">
-        <v>0.08244023083264633</v>
+        <v>0.3337722185648453</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
@@ -2131,13 +2131,13 @@
         <v>2023</v>
       </c>
       <c r="F37">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G37">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H37">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2146,24 +2146,24 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>-193.7060000000004</v>
+        <v>-142.3060000000004</v>
       </c>
       <c r="L37">
-        <v>2353</v>
+        <v>926</v>
       </c>
       <c r="M37">
-        <v>-5.11699999999999</v>
+        <v>-3.125</v>
       </c>
       <c r="N37">
-        <v>-198.8230000000004</v>
+        <v>-145.4310000000004</v>
       </c>
       <c r="O37">
-        <v>0.3089672758181046</v>
+        <v>0.04967602591792657</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -2178,39 +2178,39 @@
         <v>2023</v>
       </c>
       <c r="F38">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="G38">
-        <v>0.9000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="H38">
         <v>0.3</v>
       </c>
       <c r="I38">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J38">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="K38">
-        <v>-258.7570000000007</v>
+        <v>-149.0050000000005</v>
       </c>
       <c r="L38">
-        <v>2953</v>
+        <v>1789</v>
       </c>
       <c r="M38">
-        <v>-5.11699999999999</v>
+        <v>-3.257999999999981</v>
       </c>
       <c r="N38">
-        <v>-263.8740000000007</v>
+        <v>-152.2630000000005</v>
       </c>
       <c r="O38">
-        <v>0.2658313579410769</v>
+        <v>0.3376187814421465</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -2225,39 +2225,39 @@
         <v>2023</v>
       </c>
       <c r="F39">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G39">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H39">
         <v>0.2</v>
       </c>
       <c r="I39">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J39">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="K39">
-        <v>-299.6169999999993</v>
+        <v>-161.2480000000002</v>
       </c>
       <c r="L39">
-        <v>3721</v>
+        <v>1332</v>
       </c>
       <c r="M39">
-        <v>-5.11699999999999</v>
+        <v>-3.125</v>
       </c>
       <c r="N39">
-        <v>-304.7339999999994</v>
+        <v>-164.3730000000002</v>
       </c>
       <c r="O39">
-        <v>0.3206127385111529</v>
+        <v>0.2282282282282282</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
@@ -2275,36 +2275,36 @@
         <v>30</v>
       </c>
       <c r="G40">
+        <v>1.1</v>
+      </c>
+      <c r="H40">
+        <v>0.4</v>
+      </c>
+      <c r="I40">
         <v>0.3</v>
       </c>
-      <c r="H40">
-        <v>0.35</v>
-      </c>
-      <c r="I40">
+      <c r="J40">
         <v>0.2</v>
       </c>
-      <c r="J40">
-        <v>0.05</v>
-      </c>
       <c r="K40">
-        <v>-329.645999999999</v>
+        <v>-169.6120000000002</v>
       </c>
       <c r="L40">
-        <v>6365</v>
+        <v>2361</v>
       </c>
       <c r="M40">
-        <v>-3.504000000000005</v>
+        <v>-5.11699999999999</v>
       </c>
       <c r="N40">
-        <v>-333.1499999999991</v>
+        <v>-174.7290000000002</v>
       </c>
       <c r="O40">
-        <v>0.430164964650432</v>
+        <v>0.36001694197374</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
@@ -2319,39 +2319,39 @@
         <v>2023</v>
       </c>
       <c r="F41">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G41">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H41">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I41">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J41">
         <v>0.1</v>
       </c>
       <c r="K41">
-        <v>-443.9069999999975</v>
+        <v>-174.9260000000003</v>
       </c>
       <c r="L41">
-        <v>4767</v>
+        <v>1623</v>
       </c>
       <c r="M41">
-        <v>-4.831999999999994</v>
+        <v>-3.257999999999981</v>
       </c>
       <c r="N41">
-        <v>-448.7389999999975</v>
+        <v>-178.1840000000003</v>
       </c>
       <c r="O41">
-        <v>0.2745961820851689</v>
+        <v>0.2969808995686999</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -2366,81 +2366,457 @@
         <v>2023</v>
       </c>
       <c r="F42">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G42">
+        <v>1.9</v>
+      </c>
+      <c r="H42">
+        <v>0.05</v>
+      </c>
+      <c r="I42">
+        <v>0.45</v>
+      </c>
+      <c r="J42">
         <v>0.2</v>
       </c>
-      <c r="H42">
-        <v>0.35</v>
-      </c>
-      <c r="I42">
-        <v>0.5</v>
-      </c>
-      <c r="J42">
-        <v>0.35</v>
-      </c>
       <c r="K42">
-        <v>-463.987000000001</v>
+        <v>-183.4619999999998</v>
       </c>
       <c r="L42">
-        <v>7194</v>
+        <v>1213</v>
       </c>
       <c r="M42">
-        <v>-4.831999999999994</v>
+        <v>-3.213999999999999</v>
       </c>
       <c r="N42">
-        <v>-468.819000000001</v>
+        <v>-186.6759999999998</v>
       </c>
       <c r="O42">
-        <v>0.3198498748957465</v>
+        <v>0.08244023083264633</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>2020</v>
+      </c>
+      <c r="E43">
+        <v>2023</v>
+      </c>
+      <c r="F43">
+        <v>40</v>
+      </c>
+      <c r="G43">
+        <v>1.1</v>
+      </c>
+      <c r="H43">
+        <v>0.3</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>-193.7060000000004</v>
+      </c>
+      <c r="L43">
+        <v>2353</v>
+      </c>
+      <c r="M43">
+        <v>-5.11699999999999</v>
+      </c>
+      <c r="N43">
+        <v>-198.8230000000004</v>
+      </c>
+      <c r="O43">
+        <v>0.3089672758181046</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <v>2020</v>
+      </c>
+      <c r="E44">
+        <v>2023</v>
+      </c>
+      <c r="F44">
+        <v>90</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0.25</v>
+      </c>
+      <c r="I44">
+        <v>0.1</v>
+      </c>
+      <c r="J44">
+        <v>0.05</v>
+      </c>
+      <c r="K44">
+        <v>-223.06</v>
+      </c>
+      <c r="L44">
+        <v>2661</v>
+      </c>
+      <c r="M44">
+        <v>-3.199999999999989</v>
+      </c>
+      <c r="N44">
+        <v>-226.26</v>
+      </c>
+      <c r="O44">
+        <v>0.3705373919579106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1">
+        <v>32</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>2020</v>
+      </c>
+      <c r="E45">
+        <v>2023</v>
+      </c>
+      <c r="F45">
+        <v>20</v>
+      </c>
+      <c r="G45">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="H45">
+        <v>0.3</v>
+      </c>
+      <c r="I45">
+        <v>0.5</v>
+      </c>
+      <c r="J45">
+        <v>0.45</v>
+      </c>
+      <c r="K45">
+        <v>-258.7570000000007</v>
+      </c>
+      <c r="L45">
+        <v>2953</v>
+      </c>
+      <c r="M45">
+        <v>-5.11699999999999</v>
+      </c>
+      <c r="N45">
+        <v>-263.8740000000007</v>
+      </c>
+      <c r="O45">
+        <v>0.2658313579410769</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>2020</v>
+      </c>
+      <c r="E46">
+        <v>2023</v>
+      </c>
+      <c r="F46">
+        <v>40</v>
+      </c>
+      <c r="G46">
+        <v>0.7</v>
+      </c>
+      <c r="H46">
+        <v>0.2</v>
+      </c>
+      <c r="I46">
+        <v>0.25</v>
+      </c>
+      <c r="J46">
+        <v>0.1</v>
+      </c>
+      <c r="K46">
+        <v>-299.6169999999993</v>
+      </c>
+      <c r="L46">
+        <v>3721</v>
+      </c>
+      <c r="M46">
+        <v>-5.11699999999999</v>
+      </c>
+      <c r="N46">
+        <v>-304.7339999999994</v>
+      </c>
+      <c r="O46">
+        <v>0.3206127385111529</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>2020</v>
+      </c>
+      <c r="E47">
+        <v>2023</v>
+      </c>
+      <c r="F47">
+        <v>30</v>
+      </c>
+      <c r="G47">
+        <v>0.3</v>
+      </c>
+      <c r="H47">
+        <v>0.35</v>
+      </c>
+      <c r="I47">
+        <v>0.2</v>
+      </c>
+      <c r="J47">
+        <v>0.05</v>
+      </c>
+      <c r="K47">
+        <v>-329.645999999999</v>
+      </c>
+      <c r="L47">
+        <v>6365</v>
+      </c>
+      <c r="M47">
+        <v>-3.504000000000005</v>
+      </c>
+      <c r="N47">
+        <v>-333.1499999999991</v>
+      </c>
+      <c r="O47">
+        <v>0.430164964650432</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>2020</v>
+      </c>
+      <c r="E48">
+        <v>2023</v>
+      </c>
+      <c r="F48">
+        <v>70</v>
+      </c>
+      <c r="G48">
+        <v>0.5</v>
+      </c>
+      <c r="H48">
+        <v>0.15</v>
+      </c>
+      <c r="I48">
+        <v>0.2</v>
+      </c>
+      <c r="J48">
+        <v>0.1</v>
+      </c>
+      <c r="K48">
+        <v>-443.9069999999975</v>
+      </c>
+      <c r="L48">
+        <v>4767</v>
+      </c>
+      <c r="M48">
+        <v>-4.831999999999994</v>
+      </c>
+      <c r="N48">
+        <v>-448.7389999999975</v>
+      </c>
+      <c r="O48">
+        <v>0.2745961820851689</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="1">
+        <v>33</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49">
+        <v>2020</v>
+      </c>
+      <c r="E49">
+        <v>2023</v>
+      </c>
+      <c r="F49">
+        <v>80</v>
+      </c>
+      <c r="G49">
+        <v>0.2</v>
+      </c>
+      <c r="H49">
+        <v>0.35</v>
+      </c>
+      <c r="I49">
+        <v>0.5</v>
+      </c>
+      <c r="J49">
+        <v>0.35</v>
+      </c>
+      <c r="K49">
+        <v>-463.987000000001</v>
+      </c>
+      <c r="L49">
+        <v>7194</v>
+      </c>
+      <c r="M49">
+        <v>-4.831999999999994</v>
+      </c>
+      <c r="N49">
+        <v>-468.819000000001</v>
+      </c>
+      <c r="O49">
+        <v>0.3198498748957465</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="1">
         <v>27</v>
       </c>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43">
-        <v>2020</v>
-      </c>
-      <c r="E43">
-        <v>2023</v>
-      </c>
-      <c r="F43">
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>2020</v>
+      </c>
+      <c r="E50">
+        <v>2023</v>
+      </c>
+      <c r="F50">
         <v>70</v>
       </c>
-      <c r="G43">
+      <c r="G50">
         <v>0.3</v>
       </c>
-      <c r="H43">
+      <c r="H50">
         <v>0.1</v>
       </c>
-      <c r="I43">
+      <c r="I50">
         <v>0.45</v>
       </c>
-      <c r="J43">
+      <c r="J50">
         <v>0.05</v>
       </c>
-      <c r="K43">
+      <c r="K50">
         <v>-655.7569999999957</v>
       </c>
-      <c r="L43">
+      <c r="L50">
         <v>6335</v>
       </c>
-      <c r="M43">
+      <c r="M50">
         <v>-3.790999999999997</v>
       </c>
-      <c r="N43">
+      <c r="N50">
         <v>-659.5479999999957</v>
       </c>
-      <c r="O43">
+      <c r="O50">
         <v>0.2322020520915549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>2020</v>
+      </c>
+      <c r="E51">
+        <v>2023</v>
+      </c>
+      <c r="F51">
+        <v>90</v>
+      </c>
+      <c r="G51">
+        <v>0.3</v>
+      </c>
+      <c r="H51">
+        <v>0.1</v>
+      </c>
+      <c r="I51">
+        <v>0.4</v>
+      </c>
+      <c r="J51">
+        <v>0.35</v>
+      </c>
+      <c r="K51">
+        <v>-736.8069999999998</v>
+      </c>
+      <c r="L51">
+        <v>6321</v>
+      </c>
+      <c r="M51">
+        <v>-4.831999999999994</v>
+      </c>
+      <c r="N51">
+        <v>-741.6389999999998</v>
+      </c>
+      <c r="O51">
+        <v>0.1287770922322417</v>
       </c>
     </row>
   </sheetData>
